--- a/data/case1/5/Qlm1_13.xlsx
+++ b/data/case1/5/Qlm1_13.xlsx
@@ -62,258 +62,258 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.13653752999927349</v>
+        <v>-0.11928112952215741</v>
       </c>
       <c r="B1" s="0">
-        <v>0.13643679397173969</v>
+        <v>0.119242864003553</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.14193211299888997</v>
+        <v>-0.097141087933028558</v>
       </c>
       <c r="B2" s="0">
-        <v>0.14161641201426711</v>
+        <v>0.096992786729967584</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.091914325852135548</v>
+        <v>-0.047293486134936558</v>
       </c>
       <c r="B3" s="0">
-        <v>0.091704505376858592</v>
+        <v>0.047119960398331884</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.08370450546551389</v>
+        <v>-0.039119960488728012</v>
       </c>
       <c r="B4" s="0">
-        <v>0.08320173732445646</v>
+        <v>0.038750951723471871</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.080201737373819526</v>
+        <v>-0.035750951767269612</v>
       </c>
       <c r="B5" s="0">
-        <v>0.078484799438918174</v>
+        <v>0.034500072802053694</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.035555908815149806</v>
+        <v>-0.0053143369475368019</v>
       </c>
       <c r="B6" s="0">
-        <v>0.035134888267638331</v>
+        <v>0.005196709276720668</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.025134888394286126</v>
+        <v>0.0048032906040362811</v>
       </c>
       <c r="B7" s="0">
-        <v>0.025037303421159951</v>
+        <v>-0.0048207829033337646</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.01503730355081645</v>
+        <v>0.014820782784589426</v>
       </c>
       <c r="B8" s="0">
-        <v>0.014876175207362508</v>
+        <v>-0.014840497853476187</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.01287617526874385</v>
+        <v>0.016840497815615585</v>
       </c>
       <c r="B9" s="0">
-        <v>0.012748654774329182</v>
+        <v>-0.01685686629088945</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.010748654838350191</v>
+        <v>0.018856866255715587</v>
       </c>
       <c r="B10" s="0">
-        <v>0.010742344759423261</v>
+        <v>-0.018856569206588958</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.007742344832592174</v>
+        <v>0.02185656916169787</v>
       </c>
       <c r="B11" s="0">
-        <v>0.0077306372008996149</v>
+        <v>-0.021859489320403824</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.020863188821775847</v>
+        <v>0.025359489271229663</v>
       </c>
       <c r="B12" s="0">
-        <v>0.020669360553999816</v>
+        <v>-0.025412571290631458</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.017169360638158437</v>
+        <v>0.028912571247679431</v>
       </c>
       <c r="B13" s="0">
-        <v>0.017081352725504928</v>
+        <v>-0.028959634082012187</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0090813528514503972</v>
+        <v>0.0047987551656065719</v>
       </c>
       <c r="B14" s="0">
-        <v>0.009052876857669645</v>
+        <v>-0.0048334563124319274</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0080528769222061314</v>
+        <v>0.0058334562969131198</v>
       </c>
       <c r="B15" s="0">
-        <v>0.0080345114188773437</v>
+        <v>-0.0058578693419120142</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0060345114933100241</v>
+        <v>0.007857869317280386</v>
       </c>
       <c r="B16" s="0">
-        <v>0.0060032698071670332</v>
+        <v>-0.0079097704303743299</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0040032698831478086</v>
+        <v>0.0099097704076127613</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0039999999058109026</v>
+        <v>-0.009920030712113892</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.011495318972400526</v>
+        <v>-0.016101776130398093</v>
       </c>
       <c r="B18" s="0">
-        <v>-0.011630518360785658</v>
+        <v>0.016090526894188883</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.0048645524046264654</v>
+        <v>-0.012090526934544599</v>
       </c>
       <c r="B19" s="0">
-        <v>-0.0055487191515912748</v>
+        <v>0.012015855256806152</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.0095487191151732986</v>
+        <v>-0.0080158553003233379</v>
       </c>
       <c r="B20" s="0">
-        <v>-0.0097444425610540009</v>
+        <v>0.0080055340170144262</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0040056727385806568</v>
+        <v>-0.0040055340610187784</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0039999999636703976</v>
+        <v>0.0039999999556137311</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.045702086210313908</v>
+        <v>-0.045699300643272878</v>
       </c>
       <c r="B22" s="0">
-        <v>0.045492064201496873</v>
+        <v>0.045490175617100448</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.040492064261630212</v>
+        <v>-0.040490175678356444</v>
       </c>
       <c r="B23" s="0">
-        <v>0.04009752171408909</v>
+        <v>0.040097128268669735</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.020097521914009597</v>
+        <v>-0.020097128483864246</v>
       </c>
       <c r="B24" s="0">
-        <v>0.019999999797294166</v>
+        <v>0.019999999781821209</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.040928890677653484</v>
+        <v>-0.027185735894931895</v>
       </c>
       <c r="B25" s="0">
-        <v>0.040883285227829802</v>
+        <v>0.02711511693499169</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.038383285287366675</v>
+        <v>-0.024615116981193452</v>
       </c>
       <c r="B26" s="0">
-        <v>0.038327100831823557</v>
+        <v>0.024525961184350464</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.035827100892926289</v>
+        <v>-0.022025961231693092</v>
       </c>
       <c r="B27" s="0">
-        <v>0.03551090899160636</v>
+        <v>0.021509609644082328</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.033510909055442184</v>
+        <v>-0.019509609691507279</v>
       </c>
       <c r="B28" s="0">
-        <v>0.033313293219532802</v>
+        <v>0.019173925009771331</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.026313293332788312</v>
+        <v>-0.012173925109563832</v>
       </c>
       <c r="B29" s="0">
-        <v>0.026269144683088719</v>
+        <v>0.012086435171171139</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.033730854729477233</v>
+        <v>0.047913564207433534</v>
       </c>
       <c r="B30" s="0">
-        <v>-0.033840655312280976</v>
+        <v>-0.048225753042896446</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.040840655202446285</v>
+        <v>0.055225752950903484</v>
       </c>
       <c r="B31" s="0">
-        <v>-0.040880991750810836</v>
+        <v>-0.055327328462235315</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.050880991616084614</v>
+        <v>0.065327328343645519</v>
       </c>
       <c r="B32" s="0">
-        <v>-0.050976927060203181</v>
+        <v>-0.065483840255774695</v>
       </c>
     </row>
   </sheetData>
